--- a/fgt-tables/fgt_uf_estado_rm.xlsx
+++ b/fgt-tables/fgt_uf_estado_rm.xlsx
@@ -381,10 +381,10 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.4106490671853839</v>
+        <v>0.3529568509324034</v>
       </c>
       <c r="C2">
-        <v>0.01258601113022484</v>
+        <v>0.01031932399247814</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.4415379778587429</v>
+        <v>0.3753492847338557</v>
       </c>
       <c r="C3">
-        <v>0.007287217638753153</v>
+        <v>0.006713211876517052</v>
       </c>
     </row>
     <row r="4">
@@ -407,10 +407,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.3867828435755255</v>
+        <v>0.3280025554987386</v>
       </c>
       <c r="C4">
-        <v>0.02148146224147001</v>
+        <v>0.01898826826776655</v>
       </c>
     </row>
     <row r="5">
@@ -420,10 +420,10 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.432366791455276</v>
+        <v>0.3608313878960405</v>
       </c>
       <c r="C5">
-        <v>0.01007361787937917</v>
+        <v>0.009451377997013214</v>
       </c>
     </row>
     <row r="6">
@@ -433,10 +433,10 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.3968190299679371</v>
+        <v>0.3467161657400654</v>
       </c>
       <c r="C6">
-        <v>0.007263348050945407</v>
+        <v>0.006767853111292094</v>
       </c>
     </row>
     <row r="7">
@@ -446,10 +446,10 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.3920098766840447</v>
+        <v>0.3445554540192456</v>
       </c>
       <c r="C7">
-        <v>0.006373377666903792</v>
+        <v>0.005710428290169664</v>
       </c>
     </row>
     <row r="8">
@@ -459,10 +459,10 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.1482421505784762</v>
+        <v>0.1278987591963732</v>
       </c>
       <c r="C8">
-        <v>0.008640006337055205</v>
+        <v>0.007671841152495148</v>
       </c>
     </row>
     <row r="9">
@@ -472,10 +472,10 @@
         </is>
       </c>
       <c r="B9">
-        <v>0.2345884094180604</v>
+        <v>0.1963535850000913</v>
       </c>
       <c r="C9">
-        <v>0.007135495225480491</v>
+        <v>0.005959803150005001</v>
       </c>
     </row>
     <row r="10">
@@ -485,10 +485,10 @@
         </is>
       </c>
       <c r="B10">
-        <v>0.2226326019369153</v>
+        <v>0.1934124930164705</v>
       </c>
       <c r="C10">
-        <v>0.006687993247708332</v>
+        <v>0.005405594801197919</v>
       </c>
     </row>
     <row r="11">
@@ -498,10 +498,10 @@
         </is>
       </c>
       <c r="B11">
-        <v>0.4830505511694461</v>
+        <v>0.4336849683193303</v>
       </c>
       <c r="C11">
-        <v>0.005910331786517471</v>
+        <v>0.005586959350726499</v>
       </c>
     </row>
     <row r="12">
@@ -511,10 +511,10 @@
         </is>
       </c>
       <c r="B12">
-        <v>0.2017500733438267</v>
+        <v>0.1701176367835098</v>
       </c>
       <c r="C12">
-        <v>0.007114817561524885</v>
+        <v>0.006247883150787478</v>
       </c>
     </row>
     <row r="13">
@@ -524,10 +524,10 @@
         </is>
       </c>
       <c r="B13">
-        <v>0.2003677389239615</v>
+        <v>0.1671487427099686</v>
       </c>
       <c r="C13">
-        <v>0.007974732504585996</v>
+        <v>0.006594963417218175</v>
       </c>
     </row>
     <row r="14">
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B14">
-        <v>0.2301620123356914</v>
+        <v>0.1946555227291147</v>
       </c>
       <c r="C14">
-        <v>0.004678993611293291</v>
+        <v>0.004008863048839792</v>
       </c>
     </row>
     <row r="15">
@@ -550,10 +550,10 @@
         </is>
       </c>
       <c r="B15">
-        <v>0.4183843943486579</v>
+        <v>0.3685857288298887</v>
       </c>
       <c r="C15">
-        <v>0.007903598377261465</v>
+        <v>0.007377739101505094</v>
       </c>
     </row>
     <row r="16">
@@ -563,10 +563,10 @@
         </is>
       </c>
       <c r="B16">
-        <v>0.4029792889359091</v>
+        <v>0.357503836925234</v>
       </c>
       <c r="C16">
-        <v>0.009709419581475955</v>
+        <v>0.008867140287160763</v>
       </c>
     </row>
     <row r="17">
@@ -576,10 +576,10 @@
         </is>
       </c>
       <c r="B17">
-        <v>0.1781669964233809</v>
+        <v>0.1528193468450992</v>
       </c>
       <c r="C17">
-        <v>0.005196505461750882</v>
+        <v>0.004443970138827808</v>
       </c>
     </row>
     <row r="18">
@@ -589,10 +589,10 @@
         </is>
       </c>
       <c r="B18">
-        <v>0.397396145721143</v>
+        <v>0.34739219112078</v>
       </c>
       <c r="C18">
-        <v>0.008545829921830481</v>
+        <v>0.007779176928094804</v>
       </c>
     </row>
     <row r="19">
@@ -602,10 +602,10 @@
         </is>
       </c>
       <c r="B19">
-        <v>0.4111868913249084</v>
+        <v>0.3625814555492692</v>
       </c>
       <c r="C19">
-        <v>0.009554951934591197</v>
+        <v>0.009162588567545244</v>
       </c>
     </row>
     <row r="20">
@@ -615,10 +615,10 @@
         </is>
       </c>
       <c r="B20">
-        <v>0.2103314853814088</v>
+        <v>0.1756878579169599</v>
       </c>
       <c r="C20">
-        <v>0.004659628394521948</v>
+        <v>0.003934342509300924</v>
       </c>
     </row>
     <row r="21">
@@ -628,10 +628,10 @@
         </is>
       </c>
       <c r="B21">
-        <v>0.3650284067739848</v>
+        <v>0.3206532438156445</v>
       </c>
       <c r="C21">
-        <v>0.01330792091755216</v>
+        <v>0.01263468466705323</v>
       </c>
     </row>
     <row r="22">
@@ -641,10 +641,10 @@
         </is>
       </c>
       <c r="B22">
-        <v>0.1485150328190495</v>
+        <v>0.1204666841463396</v>
       </c>
       <c r="C22">
-        <v>0.004888486474995521</v>
+        <v>0.003929398309853801</v>
       </c>
     </row>
     <row r="23">
@@ -654,10 +654,10 @@
         </is>
       </c>
       <c r="B23">
-        <v>0.2736796766187763</v>
+        <v>0.2308820415282557</v>
       </c>
       <c r="C23">
-        <v>0.0105899784825865</v>
+        <v>0.00739496739651905</v>
       </c>
     </row>
     <row r="24">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="B24">
-        <v>0.3784127485843547</v>
+        <v>0.3166143844802502</v>
       </c>
       <c r="C24">
-        <v>0.01340704031267194</v>
+        <v>0.01245546723261897</v>
       </c>
     </row>
     <row r="25">
@@ -680,10 +680,10 @@
         </is>
       </c>
       <c r="B25">
-        <v>0.1223372789898552</v>
+        <v>0.1031270709062008</v>
       </c>
       <c r="C25">
-        <v>0.003517228672780654</v>
+        <v>0.002964278980857023</v>
       </c>
     </row>
     <row r="26">
@@ -693,10 +693,10 @@
         </is>
       </c>
       <c r="B26">
-        <v>0.168397312190888</v>
+        <v>0.1393149614132256</v>
       </c>
       <c r="C26">
-        <v>0.005344591032445823</v>
+        <v>0.004284884607912248</v>
       </c>
     </row>
     <row r="27">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="B27">
-        <v>0.4031651983593989</v>
+        <v>0.3527221061438221</v>
       </c>
       <c r="C27">
-        <v>0.010928031036641</v>
+        <v>0.01011122822442783</v>
       </c>
     </row>
     <row r="28">
@@ -719,10 +719,10 @@
         </is>
       </c>
       <c r="B28">
-        <v>0.3401129731844273</v>
+        <v>0.2886191377714448</v>
       </c>
       <c r="C28">
-        <v>0.01131598401310922</v>
+        <v>0.0100507336370167</v>
       </c>
     </row>
   </sheetData>
